--- a/DataColorTreshold.xlsx
+++ b/DataColorTreshold.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspaces\pinescript\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9769E6-AA25-44A1-BFD5-DD97BC821C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,203 +25,202 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
-  <si>
-    <t xml:space="preserve">Data Published Freq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entre 50 et 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLOAT_SHARES_OUTSTANDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P/E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;= 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0 OR &gt;25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current market price divided by EPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Négatif (included 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EARNINGS_PER_SHARE_DILUTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P/B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=0 AND &lt;= 3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0 OR &gt; 3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current market price divided by BOOK_VALUE_PER_SHARE  (FQ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D/E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+  <si>
+    <t>Data Published Freq</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>&gt; 100</t>
+  </si>
+  <si>
+    <t>entre 50 et 100</t>
+  </si>
+  <si>
+    <t>&lt; 50</t>
+  </si>
+  <si>
+    <t>FY</t>
+  </si>
+  <si>
+    <t>FLOAT_SHARES_OUTSTANDING</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>&lt;= 25</t>
+  </si>
+  <si>
+    <t>&lt;0 OR &gt;25</t>
+  </si>
+  <si>
+    <t>current market price divided by EPS</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>positif</t>
+  </si>
+  <si>
+    <t>Négatif (included 0)</t>
+  </si>
+  <si>
+    <t>TTM</t>
+  </si>
+  <si>
+    <t>EARNINGS_PER_SHARE_DILUTED</t>
+  </si>
+  <si>
+    <t>P/B</t>
+  </si>
+  <si>
+    <t>&gt;=0 AND &lt;= 3.5</t>
+  </si>
+  <si>
+    <t>&lt;0 OR &gt; 3.5</t>
+  </si>
+  <si>
+    <t>FQ</t>
+  </si>
+  <si>
+    <t>current market price divided by BOOK_VALUE_PER_SHARE  (FQ)</t>
+  </si>
+  <si>
+    <t>D/E</t>
+  </si>
+  <si>
+    <t>&lt; 1</t>
   </si>
   <si>
     <t xml:space="preserve">entre 1 et 2 </t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEBT_TO_EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=0 AND &lt;=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0 OR &gt;1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE divided EARNINGS_PER_SHARE_BASIC_ONE_YEAR_GROWTH  (FQ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dividend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">négatif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIVIDENDS_YIELD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross Margin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entre 0 et 30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt; 0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GROSS_MARGIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Margin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;= 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entre 0 et 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NET_MARGIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Cash Flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREE_CASH_FLOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBITDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EBIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;15%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entre 0 et 15%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETURN_ON_ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entre 3% et 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETURN_ON_EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entre 8% et 15%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RETURN_ON_INVESTED_CAPITAL</t>
+    <t>&gt;=2</t>
+  </si>
+  <si>
+    <t>DEBT_TO_EQUITY</t>
+  </si>
+  <si>
+    <t>PEG</t>
+  </si>
+  <si>
+    <t>&gt;=0 AND &lt;=1</t>
+  </si>
+  <si>
+    <t>&lt;0 OR &gt;1</t>
+  </si>
+  <si>
+    <t>PE divided EARNINGS_PER_SHARE_BASIC_ONE_YEAR_GROWTH  (FQ)</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>négatif</t>
+  </si>
+  <si>
+    <t>DIVIDENDS_YIELD</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>&gt;=30%</t>
+  </si>
+  <si>
+    <t>entre 0 et 30%</t>
+  </si>
+  <si>
+    <t>&lt; 0%</t>
+  </si>
+  <si>
+    <t>GROSS_MARGIN</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>&gt;= 5%</t>
+  </si>
+  <si>
+    <t>entre 0 et 5%</t>
+  </si>
+  <si>
+    <t>NET_MARGIN</t>
+  </si>
+  <si>
+    <t>Free Cash Flow</t>
+  </si>
+  <si>
+    <t>&gt;=0</t>
+  </si>
+  <si>
+    <t>FREE_CASH_FLOW</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>ROE</t>
+  </si>
+  <si>
+    <t>&gt;15%</t>
+  </si>
+  <si>
+    <t>entre 0 et 15%</t>
+  </si>
+  <si>
+    <t>&lt;0%</t>
+  </si>
+  <si>
+    <t>RETURN_ON_ASSETS</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>&gt;5%</t>
+  </si>
+  <si>
+    <t>entre 3% et 5%</t>
+  </si>
+  <si>
+    <t>&lt;3%</t>
+  </si>
+  <si>
+    <t>RETURN_ON_EQUITY</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>entre 8% et 15%</t>
+  </si>
+  <si>
+    <t>&lt;8%</t>
+  </si>
+  <si>
+    <t>RETURN_ON_INVESTED_CAPITAL</t>
+  </si>
+  <si>
+    <t>New value (Feb 09 2026)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,22 +229,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -253,6 +242,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -288,7 +284,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -296,81 +292,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -429,60 +376,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -514,7 +477,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -538,7 +501,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -598,45 +561,48 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="C2:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="66.42"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="66.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="I2" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -651,12 +617,12 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -665,12 +631,12 @@
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -682,12 +648,12 @@
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -699,12 +665,15 @@
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -719,12 +688,15 @@
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -733,32 +705,35 @@
       <c r="E8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -770,15 +745,18 @@
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -790,12 +768,15 @@
       <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -807,12 +788,12 @@
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -824,12 +805,12 @@
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -841,15 +822,15 @@
       <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -861,12 +842,15 @@
       <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -881,15 +865,18 @@
       <c r="G16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+      <c r="I16" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -901,17 +888,15 @@
       <c r="G17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" t="s">
         <v>61</v>
       </c>
+      <c r="I17" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>